--- a/artfynd/A 3379-2022.xlsx
+++ b/artfynd/A 3379-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110941127</v>
+        <v>110941060</v>
       </c>
       <c r="B2" t="n">
-        <v>95674</v>
+        <v>97565</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222741</v>
+        <v>2082</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550787.3532294596</v>
+        <v>551258.3859292676</v>
       </c>
       <c r="R2" t="n">
-        <v>7260827.811643491</v>
+        <v>7261053.512818908</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110941060</v>
+        <v>110941091</v>
       </c>
       <c r="B3" t="n">
-        <v>97565</v>
+        <v>89401</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2082</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>551258.3859292676</v>
+        <v>551211.4787857262</v>
       </c>
       <c r="R3" t="n">
-        <v>7261053.512818908</v>
+        <v>7261046.036477123</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110940964</v>
+        <v>110941061</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>97565</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>2082</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550767.4131145758</v>
+        <v>551268.3879100918</v>
       </c>
       <c r="R4" t="n">
-        <v>7260825.385546367</v>
+        <v>7261052.856994823</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>08:32</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>08:32</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110941091</v>
+        <v>110940962</v>
       </c>
       <c r="B5" t="n">
-        <v>89401</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>551211.4787857262</v>
+        <v>551131.5030927367</v>
       </c>
       <c r="R5" t="n">
-        <v>7261046.036477123</v>
+        <v>7260953.990872363</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110941061</v>
+        <v>110940985</v>
       </c>
       <c r="B6" t="n">
-        <v>97565</v>
+        <v>78605</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2082</v>
+        <v>6462</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>551268.3879100918</v>
+        <v>551060.1690338075</v>
       </c>
       <c r="R6" t="n">
-        <v>7261052.856994823</v>
+        <v>7261010.121304046</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110940962</v>
+        <v>110941101</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>551131.5030927367</v>
+        <v>551173.4259228957</v>
       </c>
       <c r="R7" t="n">
-        <v>7260953.990872363</v>
+        <v>7260984.663295291</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>07:48</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>07:48</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110940985</v>
+        <v>110941021</v>
       </c>
       <c r="B8" t="n">
-        <v>78605</v>
+        <v>97565</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>2082</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>551060.1690338075</v>
+        <v>551233.4977901136</v>
       </c>
       <c r="R8" t="n">
-        <v>7261010.121304046</v>
+        <v>7261048.502003053</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110941101</v>
+        <v>110941100</v>
       </c>
       <c r="B9" t="n">
         <v>89423</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>551173.4259228957</v>
+        <v>551140.4107674799</v>
       </c>
       <c r="R9" t="n">
-        <v>7260984.663295291</v>
+        <v>7260968.284140497</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>07:48</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>07:48</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110941021</v>
+        <v>110941030</v>
       </c>
       <c r="B10" t="n">
         <v>97565</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>551233.4977901136</v>
+        <v>551127.8232593755</v>
       </c>
       <c r="R10" t="n">
-        <v>7261048.502003053</v>
+        <v>7260950.184187901</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110940972</v>
+        <v>110941114</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,39 +1704,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>550973.6061278284</v>
+        <v>551185.9109028459</v>
       </c>
       <c r="R11" t="n">
-        <v>7260961.207097509</v>
+        <v>7261008.582541218</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1768,7 +1763,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1778,7 +1773,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1805,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110941100</v>
+        <v>110940986</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>78605</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1817,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>551140.4107674799</v>
+        <v>551084.9592709373</v>
       </c>
       <c r="R12" t="n">
-        <v>7260968.284140497</v>
+        <v>7260949.433350388</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1880,7 +1875,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1890,7 +1885,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1917,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110941030</v>
+        <v>110941102</v>
       </c>
       <c r="B13" t="n">
-        <v>97565</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1929,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2082</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>551127.8232593755</v>
+        <v>551183.8593375685</v>
       </c>
       <c r="R13" t="n">
-        <v>7260950.184187901</v>
+        <v>7261006.883380447</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1992,7 +1987,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2002,7 +1997,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2029,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110941114</v>
+        <v>110941022</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>97565</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2041,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>2082</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>551185.9109028459</v>
+        <v>551225.6128591027</v>
       </c>
       <c r="R14" t="n">
-        <v>7261008.582541218</v>
+        <v>7261023.416253227</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2104,7 +2099,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>07:47</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2114,7 +2109,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>07:47</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2141,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110941067</v>
+        <v>110941094</v>
       </c>
       <c r="B15" t="n">
-        <v>95532</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221945</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>550801.3872893023</v>
+        <v>551225.6493503592</v>
       </c>
       <c r="R15" t="n">
-        <v>7260834.709000452</v>
+        <v>7261021.337943261</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2216,7 +2211,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2226,7 +2221,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2253,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110940986</v>
+        <v>110941113</v>
       </c>
       <c r="B16" t="n">
-        <v>78605</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2265,25 +2260,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2293,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>551084.9592709373</v>
+        <v>551139.5784622584</v>
       </c>
       <c r="R16" t="n">
-        <v>7260949.433350388</v>
+        <v>7260968.269551521</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2328,7 +2323,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2338,7 +2333,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2365,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110941102</v>
+        <v>110940968</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2381,34 +2376,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>551183.8593375685</v>
+        <v>551147.5436584682</v>
       </c>
       <c r="R17" t="n">
-        <v>7261006.883380447</v>
+        <v>7260965.082797484</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2477,7 +2477,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110941022</v>
+        <v>110941027</v>
       </c>
       <c r="B18" t="n">
         <v>97565</v>
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>551225.6128591027</v>
+        <v>551193.1750334714</v>
       </c>
       <c r="R18" t="n">
-        <v>7261023.416253227</v>
+        <v>7260997.899385901</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2589,10 +2589,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110941094</v>
+        <v>110941111</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,21 +2605,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>551225.6493503592</v>
+        <v>551083.6744151703</v>
       </c>
       <c r="R19" t="n">
-        <v>7261021.337943261</v>
+        <v>7260951.489851493</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2701,10 +2701,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110941113</v>
+        <v>110941131</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2713,20 +2713,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>551139.5784622584</v>
+        <v>551074.4621738992</v>
       </c>
       <c r="R20" t="n">
-        <v>7260968.269551521</v>
+        <v>7260978.355405289</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2813,10 +2813,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110940968</v>
+        <v>110941020</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>97565</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2825,43 +2825,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>2082</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>551147.5436584682</v>
+        <v>551240.4845860014</v>
       </c>
       <c r="R21" t="n">
-        <v>7260965.082797484</v>
+        <v>7261053.614140349</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2893,7 +2888,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2903,7 +2898,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2930,10 +2925,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110941027</v>
+        <v>110941006</v>
       </c>
       <c r="B22" t="n">
-        <v>97565</v>
+        <v>78579</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2942,25 +2937,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2970,10 +2965,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>551193.1750334714</v>
+        <v>551085.7915814756</v>
       </c>
       <c r="R22" t="n">
-        <v>7260997.899385901</v>
+        <v>7260949.447923761</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3005,7 +3000,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3015,7 +3010,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3042,10 +3037,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110941111</v>
+        <v>110941026</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>97565</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3054,25 +3049,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>2082</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3082,10 +3077,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>551083.6744151703</v>
+        <v>551200.943253245</v>
       </c>
       <c r="R23" t="n">
-        <v>7260951.489851493</v>
+        <v>7261005.935768996</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3117,7 +3112,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3127,7 +3122,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3154,10 +3149,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110940980</v>
+        <v>110940974</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3170,31 +3165,27 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>obs i häcktid, lämplig biotop</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3203,10 +3194,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>550873.7877917455</v>
+        <v>551187.9697586229</v>
       </c>
       <c r="R24" t="n">
-        <v>7260788.983054731</v>
+        <v>7261009.866038773</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3238,7 +3229,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3248,7 +3239,12 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Både färska och äldre spår</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3275,10 +3271,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110940970</v>
+        <v>110941073</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>76877</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3287,43 +3283,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>214</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörkhövdad spiklav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Allocalicium adaequatum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>550839.6065611959</v>
+        <v>551258.4005351382</v>
       </c>
       <c r="R25" t="n">
-        <v>7260815.415532937</v>
+        <v>7261052.681503622</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3355,7 +3346,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3365,7 +3356,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3392,10 +3383,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110941131</v>
+        <v>110941005</v>
       </c>
       <c r="B26" t="n">
-        <v>78611</v>
+        <v>78579</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3404,25 +3395,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3432,10 +3423,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>551074.4621738992</v>
+        <v>551072.3814181939</v>
       </c>
       <c r="R26" t="n">
-        <v>7260978.355405289</v>
+        <v>7260978.318980305</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3504,10 +3495,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110941099</v>
+        <v>110940998</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3520,34 +3511,39 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>550978.6217592343</v>
+        <v>551131.4666687252</v>
       </c>
       <c r="R27" t="n">
-        <v>7260960.047338871</v>
+        <v>7260956.069229951</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3579,7 +3575,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3589,7 +3585,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3616,7 +3612,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>110941020</v>
+        <v>110941019</v>
       </c>
       <c r="B28" t="n">
         <v>97565</v>
@@ -3656,10 +3652,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>551240.4845860014</v>
+        <v>551245.5001751194</v>
       </c>
       <c r="R28" t="n">
-        <v>7261053.614140349</v>
+        <v>7261052.454878094</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3728,10 +3724,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>110941110</v>
+        <v>110941090</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3744,21 +3740,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3768,10 +3764,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>550820.0828559938</v>
+        <v>551165.1691641568</v>
       </c>
       <c r="R29" t="n">
-        <v>7260765.176901903</v>
+        <v>7261004.476584359</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3803,7 +3799,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>07:49</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3813,7 +3809,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>07:49</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3840,10 +3836,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>110941006</v>
+        <v>110940975</v>
       </c>
       <c r="B30" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3856,34 +3852,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>551085.7915814756</v>
+        <v>551209.5367011502</v>
       </c>
       <c r="R30" t="n">
-        <v>7260949.447923761</v>
+        <v>7261038.102429666</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3915,7 +3916,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3925,7 +3926,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3952,10 +3953,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>110941026</v>
+        <v>110940965</v>
       </c>
       <c r="B31" t="n">
-        <v>97565</v>
+        <v>89405</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3964,25 +3965,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2082</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3992,10 +3993,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>551200.943253245</v>
+        <v>551212.3840325382</v>
       </c>
       <c r="R31" t="n">
-        <v>7261005.935768996</v>
+        <v>7261041.894497525</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4027,7 +4028,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4037,7 +4038,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4064,10 +4065,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>110940974</v>
+        <v>110941086</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>55611</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4080,16 +4081,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>102612</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4097,10 +4098,14 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>obs i häcktid, lämplig biotop</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4109,10 +4114,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>551187.9697586229</v>
+        <v>551065.1773437195</v>
       </c>
       <c r="R32" t="n">
-        <v>7261009.866038773</v>
+        <v>7261009.377378394</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4144,7 +4149,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4154,12 +4159,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Både färska och äldre spår</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4186,10 +4186,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>110941073</v>
+        <v>110941133</v>
       </c>
       <c r="B33" t="n">
-        <v>76877</v>
+        <v>73689</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4198,25 +4198,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>214</v>
+        <v>308</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mörkhövdad spiklav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Allocalicium adaequatum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nyl.) M.Prieto &amp; Wedin</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>551258.4005351382</v>
+        <v>551098.0202443013</v>
       </c>
       <c r="R33" t="n">
-        <v>7261052.681503622</v>
+        <v>7260940.514460259</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>07:56</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>07:56</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4298,10 +4298,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>110941005</v>
+        <v>110941130</v>
       </c>
       <c r="B34" t="n">
-        <v>78579</v>
+        <v>78611</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4310,25 +4310,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>551072.3814181939</v>
+        <v>551066.8783086645</v>
       </c>
       <c r="R34" t="n">
-        <v>7260978.318980305</v>
+        <v>7261007.328194703</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4410,10 +4410,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>110941128</v>
+        <v>110940973</v>
       </c>
       <c r="B35" t="n">
-        <v>95674</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4422,38 +4422,43 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222741</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>550822.1492817929</v>
+        <v>551077.3388463358</v>
       </c>
       <c r="R35" t="n">
-        <v>7260766.044542955</v>
+        <v>7260980.484742855</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4485,7 +4490,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4495,7 +4500,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4522,10 +4527,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>110940998</v>
+        <v>110941112</v>
       </c>
       <c r="B36" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4538,39 +4543,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>551131.4666687252</v>
+        <v>551098.0202443013</v>
       </c>
       <c r="R36" t="n">
-        <v>7260956.069229951</v>
+        <v>7260940.514460259</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4639,10 +4639,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>110941019</v>
+        <v>110941003</v>
       </c>
       <c r="B37" t="n">
-        <v>97565</v>
+        <v>78579</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4651,25 +4651,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4679,10 +4679,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>551245.5001751194</v>
+        <v>551068.1121980638</v>
       </c>
       <c r="R37" t="n">
-        <v>7261052.454878094</v>
+        <v>7261008.181375185</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4751,10 +4751,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>110941090</v>
+        <v>110940997</v>
       </c>
       <c r="B38" t="n">
-        <v>89401</v>
+        <v>56414</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4767,34 +4767,39 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1108</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>551165.1691641568</v>
+        <v>551145.4628931064</v>
       </c>
       <c r="R38" t="n">
-        <v>7261004.476584359</v>
+        <v>7260965.046320412</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4826,7 +4831,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>07:49</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4836,7 +4841,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>07:49</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4863,10 +4868,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>110940960</v>
+        <v>110941004</v>
       </c>
       <c r="B39" t="n">
-        <v>73696</v>
+        <v>78579</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4879,21 +4884,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4903,10 +4908,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>550860.4370114403</v>
+        <v>551082.1070445151</v>
       </c>
       <c r="R39" t="n">
-        <v>7260814.531111397</v>
+        <v>7260993.457849125</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4938,7 +4943,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4948,7 +4953,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4975,10 +4980,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>110940975</v>
+        <v>110941002</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4991,39 +4996,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>551209.5367011502</v>
+        <v>551060.1690338075</v>
       </c>
       <c r="R40" t="n">
-        <v>7261038.102429666</v>
+        <v>7261010.121304046</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5092,10 +5092,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>110940965</v>
+        <v>110940972</v>
       </c>
       <c r="B41" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5108,34 +5108,39 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>551212.3840325382</v>
+        <v>550973.6061278284</v>
       </c>
       <c r="R41" t="n">
-        <v>7261041.894497525</v>
+        <v>7260961.207097509</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5177,7 +5182,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5204,10 +5209,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>110941086</v>
+        <v>110941099</v>
       </c>
       <c r="B42" t="n">
-        <v>55611</v>
+        <v>89423</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5220,43 +5225,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>102612</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>551065.1773437195</v>
+        <v>550978.6217592343</v>
       </c>
       <c r="R42" t="n">
-        <v>7261009.377378394</v>
+        <v>7260960.047338871</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5288,7 +5284,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5298,7 +5294,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5325,10 +5321,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>110941133</v>
+        <v>110940984</v>
       </c>
       <c r="B43" t="n">
-        <v>73689</v>
+        <v>78605</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5337,25 +5333,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>308</v>
+        <v>6462</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5365,10 +5361,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>551098.0202443013</v>
+        <v>550893.5365440539</v>
       </c>
       <c r="R43" t="n">
-        <v>7260940.514460259</v>
+        <v>7260897.854836991</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5400,7 +5396,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>07:56</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5410,7 +5406,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>07:56</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5437,10 +5433,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>110941130</v>
+        <v>110941129</v>
       </c>
       <c r="B44" t="n">
-        <v>78611</v>
+        <v>95674</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5453,21 +5449,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6463</v>
+        <v>222741</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5477,10 +5473,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>551066.8783086645</v>
+        <v>550896.5149433318</v>
       </c>
       <c r="R44" t="n">
-        <v>7261007.328194703</v>
+        <v>7260894.164535476</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5512,7 +5508,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5522,7 +5518,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5549,7 +5545,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>110940973</v>
+        <v>110940971</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5594,10 +5590,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>551077.3388463358</v>
+        <v>550917.9259425686</v>
       </c>
       <c r="R45" t="n">
-        <v>7260980.484742855</v>
+        <v>7260931.544670393</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5629,7 +5625,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5639,7 +5635,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5666,10 +5662,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>110941098</v>
+        <v>110941127</v>
       </c>
       <c r="B46" t="n">
-        <v>89423</v>
+        <v>95674</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5678,25 +5674,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>222741</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5706,10 +5702,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550867.5772001552</v>
+        <v>550787.3532294596</v>
       </c>
       <c r="R46" t="n">
-        <v>7260810.913222598</v>
+        <v>7260827.811643491</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5741,7 +5737,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5751,7 +5747,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5778,10 +5774,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>110940984</v>
+        <v>110940964</v>
       </c>
       <c r="B47" t="n">
-        <v>78605</v>
+        <v>89405</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5790,25 +5786,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6462</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5818,10 +5814,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550893.5365440539</v>
+        <v>550767.4131145758</v>
       </c>
       <c r="R47" t="n">
-        <v>7260897.854836991</v>
+        <v>7260825.385546367</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5853,7 +5849,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>08:32</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5863,7 +5859,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>08:32</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5890,10 +5886,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>110941112</v>
+        <v>110941067</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>95532</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5902,25 +5898,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5930,10 +5926,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>551098.0202443013</v>
+        <v>550801.3872893023</v>
       </c>
       <c r="R48" t="n">
-        <v>7260940.514460259</v>
+        <v>7260834.709000452</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5965,7 +5961,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>07:57</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5975,7 +5971,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>07:57</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6002,10 +5998,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>110941097</v>
+        <v>110940980</v>
       </c>
       <c r="B49" t="n">
-        <v>89423</v>
+        <v>56543</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6018,34 +6014,43 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>103021</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550873.8965118367</v>
+        <v>550873.7877917455</v>
       </c>
       <c r="R49" t="n">
-        <v>7260782.747623265</v>
+        <v>7260788.983054731</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6114,10 +6119,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>110941003</v>
+        <v>110940970</v>
       </c>
       <c r="B50" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6130,34 +6135,39 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>551068.1121980638</v>
+        <v>550839.6065611959</v>
       </c>
       <c r="R50" t="n">
-        <v>7261008.181375185</v>
+        <v>7260815.415532937</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6189,7 +6199,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6199,7 +6209,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6226,10 +6236,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>110940992</v>
+        <v>110941110</v>
       </c>
       <c r="B51" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6238,25 +6248,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6266,10 +6276,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>550801.3872893023</v>
+        <v>550820.0828559938</v>
       </c>
       <c r="R51" t="n">
-        <v>7260834.709000452</v>
+        <v>7260765.176901903</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6301,7 +6311,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6311,7 +6321,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6338,7 +6348,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>110941129</v>
+        <v>110941128</v>
       </c>
       <c r="B52" t="n">
         <v>95674</v>
@@ -6378,10 +6388,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550896.5149433318</v>
+        <v>550822.1492817929</v>
       </c>
       <c r="R52" t="n">
-        <v>7260894.164535476</v>
+        <v>7260766.044542955</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6413,7 +6423,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6423,7 +6433,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6450,10 +6460,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>110940997</v>
+        <v>110940960</v>
       </c>
       <c r="B53" t="n">
-        <v>56414</v>
+        <v>73696</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6466,39 +6476,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100049</v>
+        <v>6440</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>551145.4628931064</v>
+        <v>550860.4370114403</v>
       </c>
       <c r="R53" t="n">
-        <v>7260965.046320412</v>
+        <v>7260814.531111397</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6530,7 +6535,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>08:21</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6540,7 +6545,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>08:21</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6567,10 +6572,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>110941004</v>
+        <v>110941098</v>
       </c>
       <c r="B54" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6583,21 +6588,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6607,10 +6612,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>551082.1070445151</v>
+        <v>550867.5772001552</v>
       </c>
       <c r="R54" t="n">
-        <v>7260993.457849125</v>
+        <v>7260810.913222598</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6642,7 +6647,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6652,7 +6657,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6679,10 +6684,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>110941002</v>
+        <v>110941097</v>
       </c>
       <c r="B55" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6695,21 +6700,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6719,10 +6724,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>551060.1690338075</v>
+        <v>550873.8965118367</v>
       </c>
       <c r="R55" t="n">
-        <v>7261010.121304046</v>
+        <v>7260782.747623265</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6754,7 +6759,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6764,7 +6769,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6791,10 +6796,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>110940971</v>
+        <v>110940992</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>96368</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6803,43 +6808,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>221952</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>550917.9259425686</v>
+        <v>550801.3872893023</v>
       </c>
       <c r="R56" t="n">
-        <v>7260931.544670393</v>
+        <v>7260834.709000452</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AD56" t="b">

--- a/artfynd/A 3379-2022.xlsx
+++ b/artfynd/A 3379-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110941060</v>
+        <v>110941127</v>
       </c>
       <c r="B2" t="n">
-        <v>97565</v>
+        <v>95674</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2082</v>
+        <v>222741</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>551258.3859292676</v>
+        <v>550787.3532294596</v>
       </c>
       <c r="R2" t="n">
-        <v>7261053.512818908</v>
+        <v>7260827.811643491</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110941091</v>
+        <v>110941060</v>
       </c>
       <c r="B3" t="n">
-        <v>89401</v>
+        <v>97565</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>2082</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>551211.4787857262</v>
+        <v>551258.3859292676</v>
       </c>
       <c r="R3" t="n">
-        <v>7261046.036477123</v>
+        <v>7261053.512818908</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110941061</v>
+        <v>110940964</v>
       </c>
       <c r="B4" t="n">
-        <v>97565</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2082</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>551268.3879100918</v>
+        <v>550767.4131145758</v>
       </c>
       <c r="R4" t="n">
-        <v>7261052.856994823</v>
+        <v>7260825.385546367</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>08:32</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>08:32</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110940962</v>
+        <v>110941091</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89401</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>551131.5030927367</v>
+        <v>551211.4787857262</v>
       </c>
       <c r="R5" t="n">
-        <v>7260953.990872363</v>
+        <v>7261046.036477123</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110940985</v>
+        <v>110941061</v>
       </c>
       <c r="B6" t="n">
-        <v>78605</v>
+        <v>97565</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6462</v>
+        <v>2082</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>551060.1690338075</v>
+        <v>551268.3879100918</v>
       </c>
       <c r="R6" t="n">
-        <v>7261010.121304046</v>
+        <v>7261052.856994823</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110941101</v>
+        <v>110940962</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>551173.4259228957</v>
+        <v>551131.5030927367</v>
       </c>
       <c r="R7" t="n">
-        <v>7260984.663295291</v>
+        <v>7260953.990872363</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>07:48</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>07:48</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110941021</v>
+        <v>110940985</v>
       </c>
       <c r="B8" t="n">
-        <v>97565</v>
+        <v>78605</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2082</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>551233.4977901136</v>
+        <v>551060.1690338075</v>
       </c>
       <c r="R8" t="n">
-        <v>7261048.502003053</v>
+        <v>7261010.121304046</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1427,7 +1427,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110941100</v>
+        <v>110941101</v>
       </c>
       <c r="B9" t="n">
         <v>89423</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>551140.4107674799</v>
+        <v>551173.4259228957</v>
       </c>
       <c r="R9" t="n">
-        <v>7260968.284140497</v>
+        <v>7260984.663295291</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>07:48</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>07:48</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110941030</v>
+        <v>110941021</v>
       </c>
       <c r="B10" t="n">
         <v>97565</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>551127.8232593755</v>
+        <v>551233.4977901136</v>
       </c>
       <c r="R10" t="n">
-        <v>7260950.184187901</v>
+        <v>7261048.502003053</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>09:24</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110941114</v>
+        <v>110940972</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,34 +1704,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>551185.9109028459</v>
+        <v>550973.6061278284</v>
       </c>
       <c r="R11" t="n">
-        <v>7261008.582541218</v>
+        <v>7260961.207097509</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1763,7 +1768,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>07:47</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1773,7 +1778,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>07:47</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1800,10 +1805,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110940986</v>
+        <v>110941100</v>
       </c>
       <c r="B12" t="n">
-        <v>78605</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1817,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>551084.9592709373</v>
+        <v>551140.4107674799</v>
       </c>
       <c r="R12" t="n">
-        <v>7260949.433350388</v>
+        <v>7260968.284140497</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1875,7 +1880,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1885,7 +1890,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1912,10 +1917,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110941102</v>
+        <v>110941030</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>97565</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1929,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>2082</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>551183.8593375685</v>
+        <v>551127.8232593755</v>
       </c>
       <c r="R13" t="n">
-        <v>7261006.883380447</v>
+        <v>7260950.184187901</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1987,7 +1992,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1997,7 +2002,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2024,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110941022</v>
+        <v>110941114</v>
       </c>
       <c r="B14" t="n">
-        <v>97565</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2041,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2082</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>551225.6128591027</v>
+        <v>551185.9109028459</v>
       </c>
       <c r="R14" t="n">
-        <v>7261023.416253227</v>
+        <v>7261008.582541218</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2099,7 +2104,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2109,7 +2114,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2136,10 +2141,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110941094</v>
+        <v>110941067</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>95532</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2153,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>221945</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>551225.6493503592</v>
+        <v>550801.3872893023</v>
       </c>
       <c r="R15" t="n">
-        <v>7261021.337943261</v>
+        <v>7260834.709000452</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2211,7 +2216,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2221,7 +2226,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2248,10 +2253,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110941113</v>
+        <v>110940986</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>78605</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2260,25 +2265,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2293,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>551139.5784622584</v>
+        <v>551084.9592709373</v>
       </c>
       <c r="R16" t="n">
-        <v>7260968.269551521</v>
+        <v>7260949.433350388</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2323,7 +2328,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2333,7 +2338,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2360,10 +2365,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110940968</v>
+        <v>110941102</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2376,39 +2381,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>551147.5436584682</v>
+        <v>551183.8593375685</v>
       </c>
       <c r="R17" t="n">
-        <v>7260965.082797484</v>
+        <v>7261006.883380447</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2477,7 +2477,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110941027</v>
+        <v>110941022</v>
       </c>
       <c r="B18" t="n">
         <v>97565</v>
@@ -2517,10 +2517,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>551193.1750334714</v>
+        <v>551225.6128591027</v>
       </c>
       <c r="R18" t="n">
-        <v>7260997.899385901</v>
+        <v>7261023.416253227</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2552,7 +2552,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>09:27</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2589,10 +2589,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110941111</v>
+        <v>110941094</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2605,21 +2605,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2629,10 +2629,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>551083.6744151703</v>
+        <v>551225.6493503592</v>
       </c>
       <c r="R19" t="n">
-        <v>7260951.489851493</v>
+        <v>7261021.337943261</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2701,10 +2701,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110941131</v>
+        <v>110941113</v>
       </c>
       <c r="B20" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2713,20 +2713,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>551074.4621738992</v>
+        <v>551139.5784622584</v>
       </c>
       <c r="R20" t="n">
-        <v>7260978.355405289</v>
+        <v>7260968.269551521</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:51</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2813,10 +2813,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110941020</v>
+        <v>110940968</v>
       </c>
       <c r="B21" t="n">
-        <v>97565</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2825,38 +2825,43 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2082</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>551240.4845860014</v>
+        <v>551147.5436584682</v>
       </c>
       <c r="R21" t="n">
-        <v>7261053.614140349</v>
+        <v>7260965.082797484</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2888,7 +2893,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2898,7 +2903,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2925,10 +2930,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110941006</v>
+        <v>110941027</v>
       </c>
       <c r="B22" t="n">
-        <v>78579</v>
+        <v>97565</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2937,25 +2942,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2965,10 +2970,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>551085.7915814756</v>
+        <v>551193.1750334714</v>
       </c>
       <c r="R22" t="n">
-        <v>7260949.447923761</v>
+        <v>7260997.899385901</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3000,7 +3005,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3010,7 +3015,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>09:27</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3037,10 +3042,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110941026</v>
+        <v>110941111</v>
       </c>
       <c r="B23" t="n">
-        <v>97565</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3049,25 +3054,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2082</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogsrör</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Calamagrostis chalybaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Laest.) Fr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3077,10 +3082,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>551200.943253245</v>
+        <v>551083.6744151703</v>
       </c>
       <c r="R23" t="n">
-        <v>7261005.935768996</v>
+        <v>7260951.489851493</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3112,7 +3117,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -3122,7 +3127,7 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3149,10 +3154,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110940974</v>
+        <v>110940980</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3165,27 +3170,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>obs i häcktid, lämplig biotop</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3194,10 +3203,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>551187.9697586229</v>
+        <v>550873.7877917455</v>
       </c>
       <c r="R24" t="n">
-        <v>7261009.866038773</v>
+        <v>7260788.983054731</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3229,7 +3238,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3239,12 +3248,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>07:45</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Både färska och äldre spår</t>
+          <t>08:24</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3271,10 +3275,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110941073</v>
+        <v>110940970</v>
       </c>
       <c r="B25" t="n">
-        <v>76877</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3283,38 +3287,43 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>214</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörkhövdad spiklav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Allocalicium adaequatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) M.Prieto &amp; Wedin</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>551258.4005351382</v>
+        <v>550839.6065611959</v>
       </c>
       <c r="R25" t="n">
-        <v>7261052.681503622</v>
+        <v>7260815.415532937</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3346,7 +3355,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3356,7 +3365,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>07:37</t>
+          <t>08:20</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3383,10 +3392,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110941005</v>
+        <v>110941131</v>
       </c>
       <c r="B26" t="n">
-        <v>78579</v>
+        <v>78611</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3395,25 +3404,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2081</v>
+        <v>6463</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3423,10 +3432,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>551072.3814181939</v>
+        <v>551074.4621738992</v>
       </c>
       <c r="R26" t="n">
-        <v>7260978.318980305</v>
+        <v>7260978.355405289</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3495,10 +3504,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110940998</v>
+        <v>110941099</v>
       </c>
       <c r="B27" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3511,39 +3520,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>551131.4666687252</v>
+        <v>550978.6217592343</v>
       </c>
       <c r="R27" t="n">
-        <v>7260956.069229951</v>
+        <v>7260960.047338871</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3575,7 +3579,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3585,7 +3589,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>08:08</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3612,7 +3616,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>110941019</v>
+        <v>110941020</v>
       </c>
       <c r="B28" t="n">
         <v>97565</v>
@@ -3652,10 +3656,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>551245.5001751194</v>
+        <v>551240.4845860014</v>
       </c>
       <c r="R28" t="n">
-        <v>7261052.454878094</v>
+        <v>7261053.614140349</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3724,10 +3728,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>110941090</v>
+        <v>110941110</v>
       </c>
       <c r="B29" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3740,21 +3744,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3764,10 +3768,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>551165.1691641568</v>
+        <v>550820.0828559938</v>
       </c>
       <c r="R29" t="n">
-        <v>7261004.476584359</v>
+        <v>7260765.176901903</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3799,7 +3803,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>07:49</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3809,7 +3813,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>07:49</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3836,10 +3840,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>110940975</v>
+        <v>110941006</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3852,39 +3856,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>551209.5367011502</v>
+        <v>551085.7915814756</v>
       </c>
       <c r="R30" t="n">
-        <v>7261038.102429666</v>
+        <v>7260949.447923761</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -3916,7 +3915,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3926,7 +3925,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3953,10 +3952,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>110940965</v>
+        <v>110941026</v>
       </c>
       <c r="B31" t="n">
-        <v>89405</v>
+        <v>97565</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3965,25 +3964,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>2082</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3993,10 +3992,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>551212.3840325382</v>
+        <v>551200.943253245</v>
       </c>
       <c r="R31" t="n">
-        <v>7261041.894497525</v>
+        <v>7261005.935768996</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4028,7 +4027,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4038,7 +4037,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4065,10 +4064,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>110941086</v>
+        <v>110940974</v>
       </c>
       <c r="B32" t="n">
-        <v>55611</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4081,16 +4080,16 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>102612</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4098,14 +4097,10 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>obs i häcktid, lämplig biotop</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4114,10 +4109,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>551065.1773437195</v>
+        <v>551187.9697586229</v>
       </c>
       <c r="R32" t="n">
-        <v>7261009.377378394</v>
+        <v>7261009.866038773</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4149,7 +4144,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4159,7 +4154,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>07:45</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Både färska och äldre spår</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4186,10 +4186,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>110941133</v>
+        <v>110941073</v>
       </c>
       <c r="B33" t="n">
-        <v>73689</v>
+        <v>76877</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4198,25 +4198,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>308</v>
+        <v>214</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Mörkhövdad spiklav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Allocalicium adaequatum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) M.Prieto &amp; Wedin</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4226,10 +4226,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>551098.0202443013</v>
+        <v>551258.4005351382</v>
       </c>
       <c r="R33" t="n">
-        <v>7260940.514460259</v>
+        <v>7261052.681503622</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>07:56</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>07:56</t>
+          <t>07:37</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4298,10 +4298,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>110941130</v>
+        <v>110941005</v>
       </c>
       <c r="B34" t="n">
-        <v>78611</v>
+        <v>78579</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4310,25 +4310,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6463</v>
+        <v>2081</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>551066.8783086645</v>
+        <v>551072.3814181939</v>
       </c>
       <c r="R34" t="n">
-        <v>7261007.328194703</v>
+        <v>7260978.318980305</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4410,10 +4410,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>110940973</v>
+        <v>110941128</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>95674</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4422,43 +4422,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>222741</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>551077.3388463358</v>
+        <v>550822.1492817929</v>
       </c>
       <c r="R35" t="n">
-        <v>7260980.484742855</v>
+        <v>7260766.044542955</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4490,7 +4485,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4500,7 +4495,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4527,10 +4522,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>110941112</v>
+        <v>110940998</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4543,34 +4538,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>551098.0202443013</v>
+        <v>551131.4666687252</v>
       </c>
       <c r="R36" t="n">
-        <v>7260940.514460259</v>
+        <v>7260956.069229951</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4602,7 +4602,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>07:57</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4612,7 +4612,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>07:57</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4639,10 +4639,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>110941003</v>
+        <v>110941019</v>
       </c>
       <c r="B37" t="n">
-        <v>78579</v>
+        <v>97565</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4651,25 +4651,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Skogsrör</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Calamagrostis chalybaea</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Laest.) Fr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4679,10 +4679,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>551068.1121980638</v>
+        <v>551245.5001751194</v>
       </c>
       <c r="R37" t="n">
-        <v>7261008.181375185</v>
+        <v>7261052.454878094</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4751,10 +4751,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>110940997</v>
+        <v>110941090</v>
       </c>
       <c r="B38" t="n">
-        <v>56414</v>
+        <v>89401</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4767,39 +4767,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100049</v>
+        <v>1108</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>551145.4628931064</v>
+        <v>551165.1691641568</v>
       </c>
       <c r="R38" t="n">
-        <v>7260965.046320412</v>
+        <v>7261004.476584359</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4831,7 +4826,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>07:49</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4841,7 +4836,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>07:49</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4868,10 +4863,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>110941004</v>
+        <v>110940960</v>
       </c>
       <c r="B39" t="n">
-        <v>78579</v>
+        <v>73696</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4884,21 +4879,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4908,10 +4903,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>551082.1070445151</v>
+        <v>550860.4370114403</v>
       </c>
       <c r="R39" t="n">
-        <v>7260993.457849125</v>
+        <v>7260814.531111397</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -4943,7 +4938,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>08:21</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -4953,7 +4948,7 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>08:02</t>
+          <t>08:21</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4980,10 +4975,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>110941002</v>
+        <v>110940975</v>
       </c>
       <c r="B40" t="n">
-        <v>78579</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4996,34 +4991,39 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>551060.1690338075</v>
+        <v>551209.5367011502</v>
       </c>
       <c r="R40" t="n">
-        <v>7261010.121304046</v>
+        <v>7261038.102429666</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>08:05</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5092,10 +5092,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>110940972</v>
+        <v>110940965</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5108,39 +5108,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>550973.6061278284</v>
+        <v>551212.3840325382</v>
       </c>
       <c r="R41" t="n">
-        <v>7260961.207097509</v>
+        <v>7261041.894497525</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5172,7 +5167,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5182,7 +5177,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5209,10 +5204,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>110941099</v>
+        <v>110941086</v>
       </c>
       <c r="B42" t="n">
-        <v>89423</v>
+        <v>55611</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5225,34 +5220,43 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>102612</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>550978.6217592343</v>
+        <v>551065.1773437195</v>
       </c>
       <c r="R42" t="n">
-        <v>7260960.047338871</v>
+        <v>7261009.377378394</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5284,7 +5288,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5294,7 +5298,7 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5321,10 +5325,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>110940984</v>
+        <v>110941133</v>
       </c>
       <c r="B43" t="n">
-        <v>78605</v>
+        <v>73689</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5333,25 +5337,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6462</v>
+        <v>308</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5361,10 +5365,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>550893.5365440539</v>
+        <v>551098.0202443013</v>
       </c>
       <c r="R43" t="n">
-        <v>7260897.854836991</v>
+        <v>7260940.514460259</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5396,7 +5400,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>07:56</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5406,7 +5410,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>07:56</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5433,10 +5437,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>110941129</v>
+        <v>110941130</v>
       </c>
       <c r="B44" t="n">
-        <v>95674</v>
+        <v>78611</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5449,21 +5453,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>222741</v>
+        <v>6463</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5473,10 +5477,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>550896.5149433318</v>
+        <v>551066.8783086645</v>
       </c>
       <c r="R44" t="n">
-        <v>7260894.164535476</v>
+        <v>7261007.328194703</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5508,7 +5512,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5518,7 +5522,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>08:14</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5545,7 +5549,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>110940971</v>
+        <v>110940973</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5590,10 +5594,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>550917.9259425686</v>
+        <v>551077.3388463358</v>
       </c>
       <c r="R45" t="n">
-        <v>7260931.544670393</v>
+        <v>7260980.484742855</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5625,7 +5629,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5635,7 +5639,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5662,10 +5666,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>110941127</v>
+        <v>110941098</v>
       </c>
       <c r="B46" t="n">
-        <v>95674</v>
+        <v>89423</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5674,25 +5678,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222741</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5702,10 +5706,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>550787.3532294596</v>
+        <v>550867.5772001552</v>
       </c>
       <c r="R46" t="n">
-        <v>7260827.811643491</v>
+        <v>7260810.913222598</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5737,7 +5741,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5747,7 +5751,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>08:30</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5774,10 +5778,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>110940964</v>
+        <v>110940984</v>
       </c>
       <c r="B47" t="n">
-        <v>89405</v>
+        <v>78605</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5786,25 +5790,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1202</v>
+        <v>6462</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5814,10 +5818,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>550767.4131145758</v>
+        <v>550893.5365440539</v>
       </c>
       <c r="R47" t="n">
-        <v>7260825.385546367</v>
+        <v>7260897.854836991</v>
       </c>
       <c r="S47" t="n">
         <v>25</v>
@@ -5849,7 +5853,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>08:32</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -5859,7 +5863,7 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>08:32</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5886,10 +5890,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>110941067</v>
+        <v>110941112</v>
       </c>
       <c r="B48" t="n">
-        <v>95532</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5898,25 +5902,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5926,10 +5930,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>550801.3872893023</v>
+        <v>551098.0202443013</v>
       </c>
       <c r="R48" t="n">
-        <v>7260834.709000452</v>
+        <v>7260940.514460259</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -5961,7 +5965,7 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
@@ -5971,7 +5975,7 @@
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5998,10 +6002,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>110940980</v>
+        <v>110941097</v>
       </c>
       <c r="B49" t="n">
-        <v>56543</v>
+        <v>89423</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6014,43 +6018,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>103021</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>550873.7877917455</v>
+        <v>550873.8965118367</v>
       </c>
       <c r="R49" t="n">
-        <v>7260788.983054731</v>
+        <v>7260782.747623265</v>
       </c>
       <c r="S49" t="n">
         <v>25</v>
@@ -6119,10 +6114,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>110940970</v>
+        <v>110941003</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>78579</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6135,39 +6130,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>550839.6065611959</v>
+        <v>551068.1121980638</v>
       </c>
       <c r="R50" t="n">
-        <v>7260815.415532937</v>
+        <v>7261008.181375185</v>
       </c>
       <c r="S50" t="n">
         <v>25</v>
@@ -6199,7 +6189,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6209,7 +6199,7 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>08:04</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6236,10 +6226,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>110941110</v>
+        <v>110940992</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6248,25 +6238,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6276,10 +6266,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>550820.0828559938</v>
+        <v>550801.3872893023</v>
       </c>
       <c r="R51" t="n">
-        <v>7260765.176901903</v>
+        <v>7260834.709000452</v>
       </c>
       <c r="S51" t="n">
         <v>25</v>
@@ -6311,7 +6301,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6321,7 +6311,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6348,7 +6338,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>110941128</v>
+        <v>110941129</v>
       </c>
       <c r="B52" t="n">
         <v>95674</v>
@@ -6388,10 +6378,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>550822.1492817929</v>
+        <v>550896.5149433318</v>
       </c>
       <c r="R52" t="n">
-        <v>7260766.044542955</v>
+        <v>7260894.164535476</v>
       </c>
       <c r="S52" t="n">
         <v>25</v>
@@ -6423,7 +6413,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6433,7 +6423,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6460,10 +6450,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>110940960</v>
+        <v>110940997</v>
       </c>
       <c r="B53" t="n">
-        <v>73696</v>
+        <v>56414</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6476,34 +6466,39 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6440</v>
+        <v>100049</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>550860.4370114403</v>
+        <v>551145.4628931064</v>
       </c>
       <c r="R53" t="n">
-        <v>7260814.531111397</v>
+        <v>7260965.046320412</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6535,7 +6530,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6545,7 +6540,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6572,10 +6567,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>110941098</v>
+        <v>110941004</v>
       </c>
       <c r="B54" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6588,21 +6583,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6612,10 +6607,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>550867.5772001552</v>
+        <v>551082.1070445151</v>
       </c>
       <c r="R54" t="n">
-        <v>7260810.913222598</v>
+        <v>7260993.457849125</v>
       </c>
       <c r="S54" t="n">
         <v>25</v>
@@ -6647,7 +6642,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6657,7 +6652,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6684,10 +6679,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>110941097</v>
+        <v>110941002</v>
       </c>
       <c r="B55" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6700,21 +6695,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6724,10 +6719,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>550873.8965118367</v>
+        <v>551060.1690338075</v>
       </c>
       <c r="R55" t="n">
-        <v>7260782.747623265</v>
+        <v>7261010.121304046</v>
       </c>
       <c r="S55" t="n">
         <v>25</v>
@@ -6759,7 +6754,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6769,7 +6764,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>08:05</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6796,10 +6791,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>110940992</v>
+        <v>110940971</v>
       </c>
       <c r="B56" t="n">
-        <v>96368</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6808,38 +6803,43 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>221952</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Abraham-Persbäcken, Ly lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>550801.3872893023</v>
+        <v>550917.9259425686</v>
       </c>
       <c r="R56" t="n">
-        <v>7260834.709000452</v>
+        <v>7260931.544670393</v>
       </c>
       <c r="S56" t="n">
         <v>25</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:11</t>
         </is>
       </c>
       <c r="AD56" t="b">
